--- a/062119_Tibetan_Blood_Gas_2200.xlsx
+++ b/062119_Tibetan_Blood_Gas_2200.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE1F64-949C-4F1A-916B-427C8C8F45B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A3091D-8109-4749-ADE1-B4E455E24A11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="2200" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1296,7 +1295,7 @@
   <dimension ref="A1:AJ208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1490,7 @@
         <v>27.111999999999998</v>
       </c>
       <c r="T2" s="2">
-        <f t="shared" ref="T2:T65" si="0">1.39 * K2 * F2/100 + 0.003 * G2</f>
+        <f t="shared" ref="T2:T36" si="0">1.39 * K2 * F2/100 + 0.003 * G2</f>
         <v>23.943855999999997</v>
       </c>
       <c r="U2" s="2">
@@ -8870,7 +8869,7 @@
         <v>27.111999999999998</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" ref="T66:T129" si="3">1.39 * K72 * F72/100 + 0.003 * G72</f>
+        <f t="shared" ref="T72:T129" si="3">1.39 * K72 * F72/100 + 0.003 * G72</f>
         <v>23.034981000000002</v>
       </c>
       <c r="U72" s="14" t="s">
